--- a/myapp/files/9_MethodComparePercent/Scenario 365.xlsx
+++ b/myapp/files/9_MethodComparePercent/Scenario 365.xlsx
@@ -581,10 +581,10 @@
         <v>12</v>
       </c>
       <c r="E2" t="n">
-        <v>3819</v>
+        <v>9823</v>
       </c>
       <c r="F2" t="n">
-        <v>4.89640494384327</v>
+        <v>1.67969945640186</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
@@ -593,10 +593,10 @@
         <v>1.44927536231884</v>
       </c>
       <c r="I2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J2" t="n">
-        <v>6.89655172413793</v>
+        <v>1.80505415162455</v>
       </c>
       <c r="K2" t="n">
         <v>3</v>
@@ -619,10 +619,10 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>7337</v>
+        <v>16520</v>
       </c>
       <c r="F3" t="n">
-        <v>9.40689266116211</v>
+        <v>2.82486358747416</v>
       </c>
       <c r="G3" t="n">
         <v>2</v>
@@ -631,10 +631,10 @@
         <v>2.89855072463768</v>
       </c>
       <c r="I3" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J3" t="n">
-        <v>8.62068965517241</v>
+        <v>3.97111913357401</v>
       </c>
       <c r="K3" t="n">
         <v>3</v>
@@ -657,10 +657,10 @@
         <v>16</v>
       </c>
       <c r="E4" t="n">
-        <v>2296</v>
+        <v>23841</v>
       </c>
       <c r="F4" t="n">
-        <v>2.94374070465152</v>
+        <v>4.07672958771013</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -669,10 +669,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="J4" t="n">
-        <v>5.17241379310345</v>
+        <v>3.97111913357401</v>
       </c>
       <c r="K4" t="n">
         <v>2</v>
@@ -695,10 +695,10 @@
         <v>18</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>18604</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>3.18122047102719</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>2.16606498194946</v>
       </c>
       <c r="K5" t="n">
         <v>1</v>
@@ -733,10 +733,10 @@
         <v>20</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>11854</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>2.02699352093939</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -745,10 +745,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.72202166064982</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -771,10 +771,10 @@
         <v>12</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>8326</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1.42371756836016</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
@@ -783,10 +783,10 @@
         <v>1.44927536231884</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1.08303249097473</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -809,10 +809,10 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>190</v>
+        <v>17444</v>
       </c>
       <c r="F8" t="n">
-        <v>0.243602236012103</v>
+        <v>2.98286443219729</v>
       </c>
       <c r="G8" t="n">
         <v>7</v>
@@ -821,10 +821,10 @@
         <v>10.1449275362319</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="J8" t="n">
-        <v>1.72413793103448</v>
+        <v>4.69314079422383</v>
       </c>
       <c r="K8" t="n">
         <v>1</v>
@@ -847,10 +847,10 @@
         <v>16</v>
       </c>
       <c r="E9" t="n">
-        <v>2271</v>
+        <v>36461</v>
       </c>
       <c r="F9" t="n">
-        <v>2.91168777886045</v>
+        <v>6.23470649291134</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
@@ -859,10 +859,10 @@
         <v>1.44927536231884</v>
       </c>
       <c r="I9" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="J9" t="n">
-        <v>3.44827586206897</v>
+        <v>6.13718411552347</v>
       </c>
       <c r="K9" t="n">
         <v>6</v>
@@ -885,10 +885,10 @@
         <v>18</v>
       </c>
       <c r="E10" t="n">
-        <v>1379</v>
+        <v>20891</v>
       </c>
       <c r="F10" t="n">
-        <v>1.76803938663521</v>
+        <v>3.57228966137546</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
@@ -897,10 +897,10 @@
         <v>1.44927536231884</v>
       </c>
       <c r="I10" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="J10" t="n">
-        <v>3.44827586206897</v>
+        <v>4.33212996389892</v>
       </c>
       <c r="K10" t="n">
         <v>2</v>
@@ -923,10 +923,10 @@
         <v>20</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>12798</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>2.18841429736648</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -935,10 +935,10 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>0.72202166064982</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>12</v>
       </c>
       <c r="E12" t="n">
-        <v>1876</v>
+        <v>10862</v>
       </c>
       <c r="F12" t="n">
-        <v>2.40525155136161</v>
+        <v>1.85736490842278</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -973,10 +973,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J12" t="n">
-        <v>1.72413793103448</v>
+        <v>2.52707581227437</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -999,10 +999,10 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>9652</v>
+        <v>38295</v>
       </c>
       <c r="F13" t="n">
-        <v>12.3749935894148</v>
+        <v>6.54831423016482</v>
       </c>
       <c r="G13" t="n">
         <v>3</v>
@@ -1011,10 +1011,10 @@
         <v>4.34782608695652</v>
       </c>
       <c r="I13" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="J13" t="n">
-        <v>6.89655172413793</v>
+        <v>5.77617328519856</v>
       </c>
       <c r="K13" t="n">
         <v>6</v>
@@ -1037,10 +1037,10 @@
         <v>16</v>
       </c>
       <c r="E14" t="n">
-        <v>19900</v>
+        <v>61745</v>
       </c>
       <c r="F14" t="n">
-        <v>25.5141289296887</v>
+        <v>10.5581841530625</v>
       </c>
       <c r="G14" t="n">
         <v>6</v>
@@ -1049,10 +1049,10 @@
         <v>8.69565217391304</v>
       </c>
       <c r="I14" t="n">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="J14" t="n">
-        <v>15.5172413793103</v>
+        <v>9.38628158844765</v>
       </c>
       <c r="K14" t="n">
         <v>12</v>
@@ -1075,10 +1075,10 @@
         <v>18</v>
       </c>
       <c r="E15" t="n">
-        <v>2733</v>
+        <v>31633</v>
       </c>
       <c r="F15" t="n">
-        <v>3.50402584747936</v>
+        <v>5.40913497957446</v>
       </c>
       <c r="G15" t="n">
         <v>3</v>
@@ -1087,10 +1087,10 @@
         <v>4.34782608695652</v>
       </c>
       <c r="I15" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="J15" t="n">
-        <v>6.89655172413793</v>
+        <v>5.77617328519856</v>
       </c>
       <c r="K15" t="n">
         <v>2</v>
@@ -1113,10 +1113,10 @@
         <v>20</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>11548</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>1.97466856586874</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1125,10 +1125,10 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>1.44404332129964</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1151,10 +1151,10 @@
         <v>12</v>
       </c>
       <c r="E17" t="n">
-        <v>992</v>
+        <v>16817</v>
       </c>
       <c r="F17" t="n">
-        <v>1.27186009538951</v>
+        <v>2.87564957327802</v>
       </c>
       <c r="G17" t="n">
         <v>2</v>
@@ -1163,10 +1163,10 @@
         <v>2.89855072463768</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J17" t="n">
-        <v>1.72413793103448</v>
+        <v>3.6101083032491</v>
       </c>
       <c r="K17" t="n">
         <v>1</v>
@@ -1189,10 +1189,10 @@
         <v>14</v>
       </c>
       <c r="E18" t="n">
-        <v>696</v>
+        <v>42461</v>
       </c>
       <c r="F18" t="n">
-        <v>0.892353454023283</v>
+        <v>7.2606860041005</v>
       </c>
       <c r="G18" t="n">
         <v>4</v>
@@ -1201,10 +1201,10 @@
         <v>5.79710144927536</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="J18" t="n">
-        <v>1.72413793103448</v>
+        <v>4.69314079422383</v>
       </c>
       <c r="K18" t="n">
         <v>5</v>
@@ -1227,10 +1227,10 @@
         <v>16</v>
       </c>
       <c r="E19" t="n">
-        <v>2533</v>
+        <v>44463</v>
       </c>
       <c r="F19" t="n">
-        <v>3.24760244115083</v>
+        <v>7.60302116766728</v>
       </c>
       <c r="G19" t="n">
         <v>22</v>
@@ -1239,10 +1239,10 @@
         <v>31.8840579710145</v>
       </c>
       <c r="I19" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="J19" t="n">
-        <v>5.17241379310345</v>
+        <v>7.2202166064982</v>
       </c>
       <c r="K19" t="n">
         <v>5</v>
@@ -1265,10 +1265,10 @@
         <v>18</v>
       </c>
       <c r="E20" t="n">
-        <v>4515</v>
+        <v>38606</v>
       </c>
       <c r="F20" t="n">
-        <v>5.78875839786656</v>
+        <v>6.60149416816146</v>
       </c>
       <c r="G20" t="n">
         <v>8</v>
@@ -1277,10 +1277,10 @@
         <v>11.5942028985507</v>
       </c>
       <c r="I20" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="J20" t="n">
-        <v>5.17241379310345</v>
+        <v>6.49819494584838</v>
       </c>
       <c r="K20" t="n">
         <v>7</v>
@@ -1303,10 +1303,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>13482</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>2.30537596164205</v>
       </c>
       <c r="G21" t="n">
         <v>3</v>
@@ -1315,10 +1315,10 @@
         <v>4.34782608695652</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>2.88808664259928</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         <v>12</v>
       </c>
       <c r="E22" t="n">
-        <v>2191</v>
+        <v>12718</v>
       </c>
       <c r="F22" t="n">
-        <v>2.80911841632904</v>
+        <v>2.17473457055063</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -1353,10 +1353,10 @@
         <v>1.44927536231884</v>
       </c>
       <c r="I22" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J22" t="n">
-        <v>3.44827586206897</v>
+        <v>3.24909747292419</v>
       </c>
       <c r="K22" t="n">
         <v>1</v>
@@ -1379,10 +1379,10 @@
         <v>14</v>
       </c>
       <c r="E23" t="n">
-        <v>2952</v>
+        <v>23592</v>
       </c>
       <c r="F23" t="n">
-        <v>3.7848094774091</v>
+        <v>4.03415143799578</v>
       </c>
       <c r="G23" t="n">
         <v>2</v>
@@ -1391,10 +1391,10 @@
         <v>2.89855072463768</v>
       </c>
       <c r="I23" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="J23" t="n">
-        <v>3.44827586206897</v>
+        <v>3.97111913357401</v>
       </c>
       <c r="K23" t="n">
         <v>3</v>
@@ -1417,10 +1417,10 @@
         <v>16</v>
       </c>
       <c r="E24" t="n">
-        <v>3213</v>
+        <v>20138</v>
       </c>
       <c r="F24" t="n">
-        <v>4.11944202266783</v>
+        <v>3.44352923272122</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -1429,10 +1429,10 @@
         <v>1.44927536231884</v>
       </c>
       <c r="I24" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="J24" t="n">
-        <v>3.44827586206897</v>
+        <v>4.69314079422383</v>
       </c>
       <c r="K24" t="n">
         <v>3</v>
@@ -1455,10 +1455,10 @@
         <v>18</v>
       </c>
       <c r="E25" t="n">
-        <v>2696</v>
+        <v>18338</v>
       </c>
       <c r="F25" t="n">
-        <v>3.45658751730858</v>
+        <v>3.13573537936447</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -1467,10 +1467,10 @@
         <v>1.44927536231884</v>
       </c>
       <c r="I25" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="J25" t="n">
-        <v>8.62068965517241</v>
+        <v>5.05415162454874</v>
       </c>
       <c r="K25" t="n">
         <v>1</v>
@@ -1493,10 +1493,10 @@
         <v>20</v>
       </c>
       <c r="E26" t="n">
-        <v>6755</v>
+        <v>23547</v>
       </c>
       <c r="F26" t="n">
-        <v>8.66070054874609</v>
+        <v>4.02645659166186</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -1505,10 +1505,10 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="J26" t="n">
-        <v>6.89655172413793</v>
+        <v>3.6101083032491</v>
       </c>
       <c r="K26" t="n">
         <v>5</v>
